--- a/gym/simulation/optimizers/test_Gaussian_Optimizer/passed_info.xlsx
+++ b/gym/simulation/optimizers/test_Gaussian_Optimizer/passed_info.xlsx
@@ -58,34 +58,34 @@
     <t>H2_9</t>
   </si>
   <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_0.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_1.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_2.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_3.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_4.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_5.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_6.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_7.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_8.xyz</t>
-  </si>
-  <si>
-    <t>F:\AutoSteper\tests\test_simulation\test_optimizers\test_Gaussian_Optimizer\cooked\H2_9.xyz</t>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_0.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_1.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_2.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_3.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_4.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_5.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_6.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_7.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_8.xyz</t>
+  </si>
+  <si>
+    <t>F:\AutoSteper\gym\simulation\optimizers\test_Gaussian_Optimizer\cooked\H2_9.xyz</t>
   </si>
 </sst>
 </file>
